--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561DC61-47E1-4BC8-86F6-53E7674153C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +339,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D561DC61-47E1-4BC8-86F6-53E7674153C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081114C-1DAD-40E4-A839-BBF8F2E3CD5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>test</t>
   </si>
@@ -340,15 +340,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>

--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6081114C-1DAD-40E4-A839-BBF8F2E3CD5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9FEF8-8066-4D9A-8DB8-9FD392C58A93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>test</t>
   </si>
@@ -340,19 +340,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9FEF8-8066-4D9A-8DB8-9FD392C58A93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A18858-359A-4416-A365-3BBE0DE0AF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>

--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A18858-359A-4416-A365-3BBE0DE0AF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7931D3-A69B-448A-B6CF-7AB77E8CF9D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>test</t>
   </si>
   <si>
-    <t>test2</t>
+    <t>test3</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="B3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7931D3-A69B-448A-B6CF-7AB77E8CF9D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E16EB0-63BF-4110-9863-4CEB751C2BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>test</t>
+    <t>test3</t>
   </si>
   <si>
-    <t>test3</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -346,20 +349,20 @@
   <dimension ref="B3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/tib.xlsx
+++ b/Data Files/tib.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E16EB0-63BF-4110-9863-4CEB751C2BBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1225BDA0-5CFA-412C-939B-CB356BD998C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>test2</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>test12</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
   <dimension ref="B3:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
